--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efna2-Epha7.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efna2-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +528,1487 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.15103510374221</v>
+        <v>1.232994333333333</v>
       </c>
       <c r="H2">
-        <v>2.15103510374221</v>
+        <v>3.698983</v>
       </c>
       <c r="I2">
-        <v>0.4638108540709669</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="J2">
-        <v>0.4638108540709669</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.710880571129799</v>
+        <v>0.03932533333333333</v>
       </c>
       <c r="N2">
-        <v>0.710880571129799</v>
+        <v>0.117976</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.03588667238536742</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.03588667238536743</v>
       </c>
       <c r="Q2">
-        <v>1.529129063068509</v>
+        <v>0.04848791315644444</v>
       </c>
       <c r="R2">
-        <v>1.529129063068509</v>
+        <v>0.436391218408</v>
       </c>
       <c r="S2">
-        <v>0.4638108540709669</v>
+        <v>0.005897262616575704</v>
       </c>
       <c r="T2">
-        <v>0.4638108540709669</v>
+        <v>0.005897262616575706</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5805017091169939</v>
+        <v>1.232994333333333</v>
       </c>
       <c r="H3">
-        <v>0.5805017091169939</v>
+        <v>3.698983</v>
       </c>
       <c r="I3">
-        <v>0.1251690374679614</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="J3">
-        <v>0.1251690374679614</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.710880571129799</v>
+        <v>0.242411</v>
       </c>
       <c r="N3">
-        <v>0.710880571129799</v>
+        <v>0.727233</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.2212142505155957</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.2212142505155957</v>
       </c>
       <c r="Q3">
-        <v>0.4126673865189131</v>
+        <v>0.2988913893376667</v>
       </c>
       <c r="R3">
-        <v>0.4126673865189131</v>
+        <v>2.690022504039</v>
       </c>
       <c r="S3">
-        <v>0.1251690374679614</v>
+        <v>0.03635217319149828</v>
       </c>
       <c r="T3">
-        <v>0.1251690374679614</v>
+        <v>0.03635217319149828</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>1.232994333333333</v>
+      </c>
+      <c r="H4">
+        <v>3.698983</v>
+      </c>
+      <c r="I4">
+        <v>0.1643301600451615</v>
+      </c>
+      <c r="J4">
+        <v>0.1643301600451615</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.07026666666666666</v>
+      </c>
+      <c r="N4">
+        <v>0.2108</v>
+      </c>
+      <c r="O4">
+        <v>0.06412245320095149</v>
+      </c>
+      <c r="P4">
+        <v>0.06412245320095149</v>
+      </c>
+      <c r="Q4">
+        <v>0.08663840182222221</v>
+      </c>
+      <c r="R4">
+        <v>0.7797456164</v>
+      </c>
+      <c r="S4">
+        <v>0.01053725299700073</v>
+      </c>
+      <c r="T4">
+        <v>0.01053725299700073</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>1.232994333333333</v>
+      </c>
+      <c r="H5">
+        <v>3.698983</v>
+      </c>
+      <c r="I5">
+        <v>0.1643301600451615</v>
+      </c>
+      <c r="J5">
+        <v>0.1643301600451615</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.743817</v>
+      </c>
+      <c r="N5">
+        <v>2.231451</v>
+      </c>
+      <c r="O5">
+        <v>0.6787766238980854</v>
+      </c>
+      <c r="P5">
+        <v>0.6787766238980855</v>
+      </c>
+      <c r="Q5">
+        <v>0.9171221460369999</v>
+      </c>
+      <c r="R5">
+        <v>8.254099314333001</v>
+      </c>
+      <c r="S5">
+        <v>0.1115434712400867</v>
+      </c>
+      <c r="T5">
+        <v>0.1115434712400867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.159122333333333</v>
+      </c>
+      <c r="H6">
+        <v>6.477366999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.2877620026318713</v>
+      </c>
+      <c r="J6">
+        <v>0.2877620026318713</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.03932533333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.117976</v>
+      </c>
+      <c r="O6">
+        <v>0.03588667238536742</v>
+      </c>
+      <c r="P6">
+        <v>0.03588667238536743</v>
+      </c>
+      <c r="Q6">
+        <v>0.08490820546577775</v>
+      </c>
+      <c r="R6">
+        <v>0.7641738491919999</v>
+      </c>
+      <c r="S6">
+        <v>0.0103268207134072</v>
+      </c>
+      <c r="T6">
+        <v>0.0103268207134072</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.159122333333333</v>
+      </c>
+      <c r="H7">
+        <v>6.477366999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.2877620026318713</v>
+      </c>
+      <c r="J7">
+        <v>0.2877620026318713</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.242411</v>
+      </c>
+      <c r="N7">
+        <v>0.727233</v>
+      </c>
+      <c r="O7">
+        <v>0.2212142505155957</v>
+      </c>
+      <c r="P7">
+        <v>0.2212142505155957</v>
+      </c>
+      <c r="Q7">
+        <v>0.5233950039456666</v>
+      </c>
+      <c r="R7">
+        <v>4.710555035511</v>
+      </c>
+      <c r="S7">
+        <v>0.06365705573907628</v>
+      </c>
+      <c r="T7">
+        <v>0.06365705573907628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.159122333333333</v>
+      </c>
+      <c r="H8">
+        <v>6.477366999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.2877620026318713</v>
+      </c>
+      <c r="J8">
+        <v>0.2877620026318713</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.07026666666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.2108</v>
+      </c>
+      <c r="O8">
+        <v>0.06412245320095149</v>
+      </c>
+      <c r="P8">
+        <v>0.06412245320095149</v>
+      </c>
+      <c r="Q8">
+        <v>0.1517143292888888</v>
+      </c>
+      <c r="R8">
+        <v>1.3654289636</v>
+      </c>
+      <c r="S8">
+        <v>0.01845200554677424</v>
+      </c>
+      <c r="T8">
+        <v>0.01845200554677424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.159122333333333</v>
+      </c>
+      <c r="H9">
+        <v>6.477366999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.2877620026318713</v>
+      </c>
+      <c r="J9">
+        <v>0.2877620026318713</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.743817</v>
+      </c>
+      <c r="N9">
+        <v>2.231451</v>
+      </c>
+      <c r="O9">
+        <v>0.6787766238980854</v>
+      </c>
+      <c r="P9">
+        <v>0.6787766238980855</v>
+      </c>
+      <c r="Q9">
+        <v>1.605991896613</v>
+      </c>
+      <c r="R9">
+        <v>14.453927069517</v>
+      </c>
+      <c r="S9">
+        <v>0.1953261206326135</v>
+      </c>
+      <c r="T9">
+        <v>0.1953261206326136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6462516666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.938755</v>
+      </c>
+      <c r="I10">
+        <v>0.08613067955120557</v>
+      </c>
+      <c r="J10">
+        <v>0.08613067955120557</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.03932533333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.117976</v>
+      </c>
+      <c r="O10">
+        <v>0.03588667238536742</v>
+      </c>
+      <c r="P10">
+        <v>0.03588667238536743</v>
+      </c>
+      <c r="Q10">
+        <v>0.02541406220888889</v>
+      </c>
+      <c r="R10">
+        <v>0.22872655988</v>
+      </c>
+      <c r="S10">
+        <v>0.003090943479383179</v>
+      </c>
+      <c r="T10">
+        <v>0.00309094347938318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.6462516666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.938755</v>
+      </c>
+      <c r="I11">
+        <v>0.08613067955120557</v>
+      </c>
+      <c r="J11">
+        <v>0.08613067955120557</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.242411</v>
+      </c>
+      <c r="N11">
+        <v>0.727233</v>
+      </c>
+      <c r="O11">
+        <v>0.2212142505155957</v>
+      </c>
+      <c r="P11">
+        <v>0.2212142505155957</v>
+      </c>
+      <c r="Q11">
+        <v>0.1566585127683333</v>
+      </c>
+      <c r="R11">
+        <v>1.409926614915</v>
+      </c>
+      <c r="S11">
+        <v>0.01905333372331888</v>
+      </c>
+      <c r="T11">
+        <v>0.01905333372331888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.6462516666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.938755</v>
+      </c>
+      <c r="I12">
+        <v>0.08613067955120557</v>
+      </c>
+      <c r="J12">
+        <v>0.08613067955120557</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.07026666666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.2108</v>
+      </c>
+      <c r="O12">
+        <v>0.06412245320095149</v>
+      </c>
+      <c r="P12">
+        <v>0.06412245320095149</v>
+      </c>
+      <c r="Q12">
+        <v>0.04540995044444444</v>
+      </c>
+      <c r="R12">
+        <v>0.408689554</v>
+      </c>
+      <c r="S12">
+        <v>0.005522910468688328</v>
+      </c>
+      <c r="T12">
+        <v>0.005522910468688328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.6462516666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.938755</v>
+      </c>
+      <c r="I13">
+        <v>0.08613067955120557</v>
+      </c>
+      <c r="J13">
+        <v>0.08613067955120557</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.743817</v>
+      </c>
+      <c r="N13">
+        <v>2.231451</v>
+      </c>
+      <c r="O13">
+        <v>0.6787766238980854</v>
+      </c>
+      <c r="P13">
+        <v>0.6787766238980855</v>
+      </c>
+      <c r="Q13">
+        <v>0.480692975945</v>
+      </c>
+      <c r="R13">
+        <v>4.326236783504999</v>
+      </c>
+      <c r="S13">
+        <v>0.05846349187981517</v>
+      </c>
+      <c r="T13">
+        <v>0.05846349187981519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.312594</v>
+      </c>
+      <c r="H14">
+        <v>3.937782</v>
+      </c>
+      <c r="I14">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="J14">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.03932533333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.117976</v>
+      </c>
+      <c r="O14">
+        <v>0.03588667238536742</v>
+      </c>
+      <c r="P14">
+        <v>0.03588667238536743</v>
+      </c>
+      <c r="Q14">
+        <v>0.05161819658133333</v>
+      </c>
+      <c r="R14">
+        <v>0.464563769232</v>
+      </c>
+      <c r="S14">
+        <v>0.00627797818503754</v>
+      </c>
+      <c r="T14">
+        <v>0.00627797818503754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.312594</v>
+      </c>
+      <c r="H15">
+        <v>3.937782</v>
+      </c>
+      <c r="I15">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="J15">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.242411</v>
+      </c>
+      <c r="N15">
+        <v>0.727233</v>
+      </c>
+      <c r="O15">
+        <v>0.2212142505155957</v>
+      </c>
+      <c r="P15">
+        <v>0.2212142505155957</v>
+      </c>
+      <c r="Q15">
+        <v>0.318187224134</v>
+      </c>
+      <c r="R15">
+        <v>2.863685017206</v>
+      </c>
+      <c r="S15">
+        <v>0.03869899733368996</v>
+      </c>
+      <c r="T15">
+        <v>0.03869899733368995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.90620524268373</v>
-      </c>
-      <c r="H4">
-        <v>1.90620524268373</v>
-      </c>
-      <c r="I4">
-        <v>0.4110201084610716</v>
-      </c>
-      <c r="J4">
-        <v>0.4110201084610716</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.710880571129799</v>
-      </c>
-      <c r="N4">
-        <v>0.710880571129799</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1.355084271609627</v>
-      </c>
-      <c r="R4">
-        <v>1.355084271609627</v>
-      </c>
-      <c r="S4">
-        <v>0.4110201084610716</v>
-      </c>
-      <c r="T4">
-        <v>0.4110201084610716</v>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.312594</v>
+      </c>
+      <c r="H16">
+        <v>3.937782</v>
+      </c>
+      <c r="I16">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="J16">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.07026666666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.2108</v>
+      </c>
+      <c r="O16">
+        <v>0.06412245320095149</v>
+      </c>
+      <c r="P16">
+        <v>0.06412245320095149</v>
+      </c>
+      <c r="Q16">
+        <v>0.09223160506666665</v>
+      </c>
+      <c r="R16">
+        <v>0.8300844455999999</v>
+      </c>
+      <c r="S16">
+        <v>0.01121751713404348</v>
+      </c>
+      <c r="T16">
+        <v>0.01121751713404348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.312594</v>
+      </c>
+      <c r="H17">
+        <v>3.937782</v>
+      </c>
+      <c r="I17">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="J17">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.743817</v>
+      </c>
+      <c r="N17">
+        <v>2.231451</v>
+      </c>
+      <c r="O17">
+        <v>0.6787766238980854</v>
+      </c>
+      <c r="P17">
+        <v>0.6787766238980855</v>
+      </c>
+      <c r="Q17">
+        <v>0.9763297312979999</v>
+      </c>
+      <c r="R17">
+        <v>8.786967581681999</v>
+      </c>
+      <c r="S17">
+        <v>0.1187444963295942</v>
+      </c>
+      <c r="T17">
+        <v>0.1187444963295942</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.09591499999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.287745</v>
+      </c>
+      <c r="I18">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="J18">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.03932533333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.117976</v>
+      </c>
+      <c r="O18">
+        <v>0.03588667238536742</v>
+      </c>
+      <c r="P18">
+        <v>0.03588667238536743</v>
+      </c>
+      <c r="Q18">
+        <v>0.003771889346666666</v>
+      </c>
+      <c r="R18">
+        <v>0.03394700412</v>
+      </c>
+      <c r="S18">
+        <v>0.0004587498324827597</v>
+      </c>
+      <c r="T18">
+        <v>0.0004587498324827598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.09591499999999999</v>
+      </c>
+      <c r="H19">
+        <v>0.287745</v>
+      </c>
+      <c r="I19">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="J19">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.242411</v>
+      </c>
+      <c r="N19">
+        <v>0.727233</v>
+      </c>
+      <c r="O19">
+        <v>0.2212142505155957</v>
+      </c>
+      <c r="P19">
+        <v>0.2212142505155957</v>
+      </c>
+      <c r="Q19">
+        <v>0.023250851065</v>
+      </c>
+      <c r="R19">
+        <v>0.209257659585</v>
+      </c>
+      <c r="S19">
+        <v>0.002827846485098112</v>
+      </c>
+      <c r="T19">
+        <v>0.002827846485098112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.09591499999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.287745</v>
+      </c>
+      <c r="I20">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="J20">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.07026666666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.2108</v>
+      </c>
+      <c r="O20">
+        <v>0.06412245320095149</v>
+      </c>
+      <c r="P20">
+        <v>0.06412245320095149</v>
+      </c>
+      <c r="Q20">
+        <v>0.006739627333333331</v>
+      </c>
+      <c r="R20">
+        <v>0.06065664599999999</v>
+      </c>
+      <c r="S20">
+        <v>0.000819696079604036</v>
+      </c>
+      <c r="T20">
+        <v>0.000819696079604036</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.09591499999999999</v>
+      </c>
+      <c r="H21">
+        <v>0.287745</v>
+      </c>
+      <c r="I21">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="J21">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.743817</v>
+      </c>
+      <c r="N21">
+        <v>2.231451</v>
+      </c>
+      <c r="O21">
+        <v>0.6787766238980854</v>
+      </c>
+      <c r="P21">
+        <v>0.6787766238980855</v>
+      </c>
+      <c r="Q21">
+        <v>0.07134320755499998</v>
+      </c>
+      <c r="R21">
+        <v>0.6420888679949999</v>
+      </c>
+      <c r="S21">
+        <v>0.008677000173285132</v>
+      </c>
+      <c r="T21">
+        <v>0.008677000173285133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.056275666666667</v>
+      </c>
+      <c r="H22">
+        <v>6.168827</v>
+      </c>
+      <c r="I22">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="J22">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.03932533333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.117976</v>
+      </c>
+      <c r="O22">
+        <v>0.03588667238536742</v>
+      </c>
+      <c r="P22">
+        <v>0.03588667238536743</v>
+      </c>
+      <c r="Q22">
+        <v>0.08086372601688888</v>
+      </c>
+      <c r="R22">
+        <v>0.727773534152</v>
+      </c>
+      <c r="S22">
+        <v>0.009834917558481036</v>
+      </c>
+      <c r="T22">
+        <v>0.009834917558481038</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.056275666666667</v>
+      </c>
+      <c r="H23">
+        <v>6.168827</v>
+      </c>
+      <c r="I23">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="J23">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.242411</v>
+      </c>
+      <c r="N23">
+        <v>0.727233</v>
+      </c>
+      <c r="O23">
+        <v>0.2212142505155957</v>
+      </c>
+      <c r="P23">
+        <v>0.2212142505155957</v>
+      </c>
+      <c r="Q23">
+        <v>0.4984638406323333</v>
+      </c>
+      <c r="R23">
+        <v>4.486174565691</v>
+      </c>
+      <c r="S23">
+        <v>0.06062484404291416</v>
+      </c>
+      <c r="T23">
+        <v>0.06062484404291416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.056275666666667</v>
+      </c>
+      <c r="H24">
+        <v>6.168827</v>
+      </c>
+      <c r="I24">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="J24">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.07026666666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.2108</v>
+      </c>
+      <c r="O24">
+        <v>0.06412245320095149</v>
+      </c>
+      <c r="P24">
+        <v>0.06412245320095149</v>
+      </c>
+      <c r="Q24">
+        <v>0.1444876368444444</v>
+      </c>
+      <c r="R24">
+        <v>1.3003887316</v>
+      </c>
+      <c r="S24">
+        <v>0.01757307097484067</v>
+      </c>
+      <c r="T24">
+        <v>0.01757307097484067</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.056275666666667</v>
+      </c>
+      <c r="H25">
+        <v>6.168827</v>
+      </c>
+      <c r="I25">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="J25">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.743817</v>
+      </c>
+      <c r="N25">
+        <v>2.231451</v>
+      </c>
+      <c r="O25">
+        <v>0.6787766238980854</v>
+      </c>
+      <c r="P25">
+        <v>0.6787766238980855</v>
+      </c>
+      <c r="Q25">
+        <v>1.529492797553</v>
+      </c>
+      <c r="R25">
+        <v>13.765435177977</v>
+      </c>
+      <c r="S25">
+        <v>0.1860220436426906</v>
+      </c>
+      <c r="T25">
+        <v>0.1860220436426906</v>
       </c>
     </row>
   </sheetData>
